--- a/5 Intramural Grant/intramuralgrant-budgettemplate.xlsx
+++ b/5 Intramural Grant/intramuralgrant-budgettemplate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brittany.norman\OneDrive - Midwestern State University\OSPR Public\Public Documents\Fall 2023 Intramural Grants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicholas.maxwell\Documents\GitHub\DRM-Reactivity\5 Intramural Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61EA2C-DDAD-4E47-A6C4-59C1A0816F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="3795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="3795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>MSU Faculty Intramural Grants - Proposal Budget Template</t>
   </si>
@@ -152,11 +153,14 @@
       <t xml:space="preserve">All columns should be the *per person* expense. </t>
     </r>
   </si>
+  <si>
+    <t>Prolific Participant Pay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -375,80 +379,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -731,12 +735,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:J9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,65 +755,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -817,13 +821,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="9"/>
       <c r="G5" s="8">
         <v>0</v>
@@ -840,13 +844,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="9"/>
       <c r="G6" s="8">
         <v>0</v>
@@ -864,52 +868,52 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="3">
         <f>SUM(J5:J6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="35" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
@@ -920,12 +924,12 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="4">
         <v>0</v>
       </c>
@@ -941,12 +945,12 @@
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="4">
         <v>0</v>
       </c>
@@ -962,12 +966,12 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="4">
         <v>0</v>
       </c>
@@ -983,12 +987,12 @@
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="4">
         <v>0</v>
       </c>
@@ -1004,12 +1008,12 @@
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="4">
         <v>0</v>
       </c>
@@ -1025,12 +1029,12 @@
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="4">
         <v>0</v>
       </c>
@@ -1043,48 +1047,48 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="20" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="3">
         <f>SUM(J11:J16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
@@ -1093,19 +1097,19 @@
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="14" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -1116,9 +1120,9 @@
       <c r="A21" s="10">
         <v>1</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -1133,9 +1137,9 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -1147,10 +1151,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="12"/>
       <c r="J23" s="3">
         <f>SUM(J21:J22)</f>
         <v>0</v>
@@ -1171,28 +1175,28 @@
       <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" t="s">
         <v>5</v>
       </c>
@@ -1201,26 +1205,28 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="D27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="4">
-        <v>0</v>
+        <v>2553.6</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="4">
         <v>0</v>
       </c>
@@ -1229,12 +1235,12 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="4">
         <v>0</v>
       </c>
@@ -1243,12 +1249,12 @@
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="4">
         <v>0</v>
       </c>
@@ -1257,63 +1263,63 @@
       <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="16"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="7">
         <f>SUM(J27:J31)</f>
-        <v>0</v>
+        <v>2553.6</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
       <c r="H35" t="s">
         <v>10</v>
       </c>
@@ -1328,12 +1334,12 @@
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="4">
         <v>0</v>
       </c>
@@ -1349,12 +1355,12 @@
       <c r="A37">
         <v>2</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
       <c r="H37" s="4">
         <v>0</v>
       </c>
@@ -1370,12 +1376,12 @@
       <c r="A38">
         <v>3</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="4">
         <v>0</v>
       </c>
@@ -1391,12 +1397,12 @@
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="4">
         <v>0</v>
       </c>
@@ -1409,70 +1415,84 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="16" t="s">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="16"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="3">
         <f>SUM(J36:J39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="2">
         <f>SUM(J7+J17+J23+J32)</f>
-        <v>0</v>
+        <v>2553.6</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
       <c r="J42" s="2">
         <f>J40</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
       <c r="J43" s="2">
         <f>SUM(J41+J42)</f>
-        <v>0</v>
+        <v>2553.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="D28:I28"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A25:J25"/>
@@ -1489,35 +1509,21 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" prompt="select one of the pay rates in the drop-down list." sqref="I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" prompt="select one of the pay rates in the drop-down list." sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"8.25, 8.50, 8.75, 9, 9.25"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select one" prompt="Select one of the pay rates from the drop-down list." sqref="I5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select one" prompt="Select one of the pay rates from the drop-down list." sqref="I5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>",10.75, 11, 11.25, 11.50, 11.75"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1964,15 +1970,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Self_Registration_Enabled xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
@@ -2027,6 +2024,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FB5F636-AFCB-477E-8A91-6CF58F89AAD5}">
   <ds:schemaRefs>
@@ -2047,14 +2053,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{979E55CD-36D1-4A22-A3EA-55FF9453C3FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFC32544-1998-4187-92CA-4ACBF5736806}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2069,4 +2067,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{979E55CD-36D1-4A22-A3EA-55FF9453C3FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/5 Intramural Grant/intramuralgrant-budgettemplate.xlsx
+++ b/5 Intramural Grant/intramuralgrant-budgettemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicholas.maxwell\Documents\GitHub\DRM-Reactivity\5 Intramural Grant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\DRM-Reactivity\5 Intramural Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61EA2C-DDAD-4E47-A6C4-59C1A0816F45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C276F7-BD45-4E33-AAE6-CCDDE6A98066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18345" windowHeight="3795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>MSU Faculty Intramural Grants - Proposal Budget Template</t>
   </si>
@@ -154,7 +165,10 @@
     </r>
   </si>
   <si>
-    <t>Prolific Participant Pay</t>
+    <t>Prolific Participant Pay ($4*480 participants)</t>
+  </si>
+  <si>
+    <t>Prolific Fees ($1 * 480 participants)</t>
   </si>
 </sst>
 </file>
@@ -363,7 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -377,22 +391,65 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -402,57 +459,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -739,22 +751,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="3" max="3" width="2.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="5" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="8" width="9.81640625" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -768,7 +780,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -782,7 +794,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
@@ -796,39 +808,39 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="11" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="8">
         <v>0</v>
       </c>
@@ -843,15 +855,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="8">
         <v>0</v>
       </c>
@@ -866,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="G7" s="28" t="s">
         <v>6</v>
@@ -878,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
@@ -887,49 +899,49 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="13" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="4">
         <v>0</v>
       </c>
@@ -941,16 +953,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="4">
         <v>0</v>
       </c>
@@ -962,16 +974,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="4">
         <v>0</v>
       </c>
@@ -983,16 +995,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="4">
         <v>0</v>
       </c>
@@ -1004,16 +1016,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="4">
         <v>0</v>
       </c>
@@ -1025,16 +1037,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="4">
         <v>0</v>
       </c>
@@ -1046,13 +1058,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="28" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>13</v>
       </c>
@@ -1076,250 +1088,251 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="33" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="14" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="4">
         <f>(E21*F21*H21*I21)+G21*E21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="4">
         <f>(E22*F22*H22*I22)+G22*E22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H23" s="12" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="3">
         <f>SUM(J21:J22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="30" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="4">
-        <v>2553.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="D28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H32" s="34" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H32" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="34"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="7">
         <f>SUM(J27:J31)</f>
-        <v>2553.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="30" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
       <c r="H35" t="s">
         <v>10</v>
       </c>
@@ -1330,16 +1343,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
       <c r="H36" s="4">
         <v>0</v>
       </c>
@@ -1351,16 +1364,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="4">
         <v>0</v>
       </c>
@@ -1372,16 +1385,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>3</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="4">
         <v>0</v>
       </c>
@@ -1393,16 +1406,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="4">
         <v>0</v>
       </c>
@@ -1414,85 +1427,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="34" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="3">
         <f>SUM(J36:J39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="35" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="2">
         <f>SUM(J7+J17+J23+J32)</f>
-        <v>2553.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="35" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D42" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="2">
         <f>J40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="35" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="2">
         <f>SUM(J41+J42)</f>
-        <v>2553.6</v>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A25:J25"/>
@@ -1509,15 +1512,25 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="select one" prompt="select one of the pay rates in the drop-down list." sqref="I6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1533,6 +1546,70 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <Invited_Members xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <LMS_Mappings xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <Invited_Leaders xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <Math_Settings xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <Templates xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <AppVersion xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <TeamsChannelId xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <Distribution_Groups xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <Has_Leaders_Only_SectionGroup xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <CultureName xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <Owner xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Members xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <DefaultSectionNames xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <NotebookType xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <FolderType xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
+    <Leaders xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <Member_Groups xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <TaxCatchAll xmlns="4edddf99-7421-4cba-b128-b6fecff534a3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B808ACBA5C1ED45B26571969E23DB49" ma:contentTypeVersion="37" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bef01a68eb40de3c00584695dd405fd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e1201fcd-414e-4158-a70b-d18ee061d0ec" xmlns:ns3="4edddf99-7421-4cba-b128-b6fecff534a3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e63dc96be275fcfc8239345d79b9ab75" ns2:_="" ns3:_="">
     <xsd:import namespace="e1201fcd-414e-4158-a70b-d18ee061d0ec"/>
@@ -1969,85 +2046,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <Invited_Members xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <LMS_Mappings xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <Invited_Leaders xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <Math_Settings xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <Templates xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <AppVersion xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <TeamsChannelId xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <Distribution_Groups xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <Has_Leaders_Only_SectionGroup xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <CultureName xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <Owner xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Members xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <DefaultSectionNames xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <NotebookType xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <FolderType xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec" xsi:nil="true"/>
-    <Leaders xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <Member_Groups xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <TaxCatchAll xmlns="4edddf99-7421-4cba-b128-b6fecff534a3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e1201fcd-414e-4158-a70b-d18ee061d0ec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FB5F636-AFCB-477E-8A91-6CF58F89AAD5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{979E55CD-36D1-4A22-A3EA-55FF9453C3FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e1201fcd-414e-4158-a70b-d18ee061d0ec"/>
-    <ds:schemaRef ds:uri="4edddf99-7421-4cba-b128-b6fecff534a3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2070,9 +2072,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{979E55CD-36D1-4A22-A3EA-55FF9453C3FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FB5F636-AFCB-477E-8A91-6CF58F89AAD5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e1201fcd-414e-4158-a70b-d18ee061d0ec"/>
+    <ds:schemaRef ds:uri="4edddf99-7421-4cba-b128-b6fecff534a3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>